--- a/excel/Users.xlsx
+++ b/excel/Users.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lisav\Desktop\ConferentionOrganisation\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lisav\Desktop\test\ConferentionOrganisation\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,12 +13,12 @@
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
-    <sheet name="Event" sheetId="5" r:id="rId2"/>
+    <sheet name="EventChain" sheetId="5" r:id="rId2"/>
     <sheet name="direction" sheetId="4" r:id="rId3"/>
     <sheet name="Role" sheetId="2" r:id="rId4"/>
     <sheet name="Sex" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="385">
   <si>
     <t>Почта</t>
   </si>
@@ -1191,7 +1191,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\7\(###\)###\-##\-##"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -1226,7 +1226,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1509,8 +1509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1589,8 +1589,8 @@
       <c r="F2" s="2">
         <v>27943</v>
       </c>
-      <c r="G2">
-        <v>45</v>
+      <c r="G2" t="s">
+        <v>233</v>
       </c>
       <c r="H2" s="1">
         <v>9535958817</v>
@@ -1677,8 +1677,8 @@
       <c r="F4" s="2">
         <v>28451</v>
       </c>
-      <c r="G4">
-        <v>45</v>
+      <c r="G4" t="s">
+        <v>233</v>
       </c>
       <c r="H4" s="1">
         <v>9642825534</v>
@@ -1721,8 +1721,8 @@
       <c r="F5" s="2">
         <v>28943</v>
       </c>
-      <c r="G5">
-        <v>93</v>
+      <c r="G5" t="s">
+        <v>233</v>
       </c>
       <c r="H5" s="1">
         <v>9146963092</v>
@@ -1853,8 +1853,8 @@
       <c r="F8" s="2">
         <v>29316</v>
       </c>
-      <c r="G8">
-        <v>73</v>
+      <c r="G8" t="s">
+        <v>233</v>
       </c>
       <c r="H8" s="1">
         <v>9722852439</v>
@@ -1897,8 +1897,8 @@
       <c r="F9" s="2">
         <v>29354</v>
       </c>
-      <c r="G9">
-        <v>81</v>
+      <c r="G9" t="s">
+        <v>233</v>
       </c>
       <c r="H9" s="1">
         <v>9265122798</v>
@@ -1941,8 +1941,8 @@
       <c r="F10" s="2">
         <v>29515</v>
       </c>
-      <c r="G10">
-        <v>13</v>
+      <c r="G10" t="s">
+        <v>233</v>
       </c>
       <c r="H10" s="1">
         <v>9280258266</v>
@@ -1985,8 +1985,8 @@
       <c r="F11" s="2">
         <v>29539</v>
       </c>
-      <c r="G11">
-        <v>61</v>
+      <c r="G11" t="s">
+        <v>233</v>
       </c>
       <c r="H11" s="1">
         <v>9372430247</v>
@@ -2029,8 +2029,8 @@
       <c r="F12" s="2">
         <v>29767</v>
       </c>
-      <c r="G12">
-        <v>22</v>
+      <c r="G12" t="s">
+        <v>233</v>
       </c>
       <c r="H12" s="1">
         <v>9468215040</v>
@@ -2117,8 +2117,8 @@
       <c r="F14" s="2">
         <v>30133</v>
       </c>
-      <c r="G14">
-        <v>38</v>
+      <c r="G14" t="s">
+        <v>233</v>
       </c>
       <c r="H14" s="1">
         <v>9276917629</v>
@@ -2161,8 +2161,8 @@
       <c r="F15" s="2">
         <v>30141</v>
       </c>
-      <c r="G15">
-        <v>35</v>
+      <c r="G15" t="s">
+        <v>233</v>
       </c>
       <c r="H15" s="1">
         <v>9562206332</v>
@@ -2205,8 +2205,8 @@
       <c r="F16" s="2">
         <v>30455</v>
       </c>
-      <c r="G16">
-        <v>5</v>
+      <c r="G16" t="s">
+        <v>233</v>
       </c>
       <c r="H16" s="1">
         <v>9137215842</v>
@@ -2249,8 +2249,8 @@
       <c r="F17" s="2">
         <v>30645</v>
       </c>
-      <c r="G17">
-        <v>69</v>
+      <c r="G17" t="s">
+        <v>233</v>
       </c>
       <c r="H17" s="1">
         <v>9703430187</v>
@@ -2381,8 +2381,8 @@
       <c r="F20" s="2">
         <v>31506</v>
       </c>
-      <c r="G20">
-        <v>54</v>
+      <c r="G20" t="s">
+        <v>233</v>
       </c>
       <c r="H20" s="1">
         <v>9027465996</v>
@@ -2425,8 +2425,8 @@
       <c r="F21" s="2">
         <v>31723</v>
       </c>
-      <c r="G21">
-        <v>73</v>
+      <c r="G21" t="s">
+        <v>233</v>
       </c>
       <c r="H21" s="1">
         <v>9916725449</v>
@@ -2513,8 +2513,8 @@
       <c r="F23" s="2">
         <v>34047</v>
       </c>
-      <c r="G23">
-        <v>5</v>
+      <c r="G23" t="s">
+        <v>233</v>
       </c>
       <c r="H23" t="s">
         <v>74</v>
@@ -2557,8 +2557,8 @@
       <c r="F24" s="2">
         <v>23051</v>
       </c>
-      <c r="G24">
-        <v>97</v>
+      <c r="G24" t="s">
+        <v>233</v>
       </c>
       <c r="H24" t="s">
         <v>78</v>
@@ -2601,8 +2601,8 @@
       <c r="F25" s="2">
         <v>33323</v>
       </c>
-      <c r="G25">
-        <v>65</v>
+      <c r="G25" t="s">
+        <v>233</v>
       </c>
       <c r="H25" t="s">
         <v>82</v>
@@ -2645,8 +2645,8 @@
       <c r="F26" s="2">
         <v>35790</v>
       </c>
-      <c r="G26">
-        <v>27</v>
+      <c r="G26" t="s">
+        <v>233</v>
       </c>
       <c r="H26" t="s">
         <v>86</v>
@@ -2689,8 +2689,8 @@
       <c r="F27" s="2">
         <v>26112</v>
       </c>
-      <c r="G27">
-        <v>47</v>
+      <c r="G27" t="s">
+        <v>233</v>
       </c>
       <c r="H27" t="s">
         <v>90</v>
@@ -2733,8 +2733,8 @@
       <c r="F28" s="2">
         <v>30189</v>
       </c>
-      <c r="G28">
-        <v>21</v>
+      <c r="G28" t="s">
+        <v>233</v>
       </c>
       <c r="H28" t="s">
         <v>94</v>
@@ -2777,8 +2777,8 @@
       <c r="F29" s="2">
         <v>19307</v>
       </c>
-      <c r="G29">
-        <v>22</v>
+      <c r="G29" t="s">
+        <v>233</v>
       </c>
       <c r="H29" t="s">
         <v>98</v>
@@ -2821,8 +2821,8 @@
       <c r="F30" s="2">
         <v>35110</v>
       </c>
-      <c r="G30">
-        <v>13</v>
+      <c r="G30" t="s">
+        <v>233</v>
       </c>
       <c r="H30" t="s">
         <v>102</v>
@@ -2909,8 +2909,8 @@
       <c r="F32" s="2">
         <v>26552</v>
       </c>
-      <c r="G32">
-        <v>59</v>
+      <c r="G32" t="s">
+        <v>233</v>
       </c>
       <c r="H32" t="s">
         <v>111</v>
@@ -3085,8 +3085,8 @@
       <c r="F36" s="2">
         <v>30959</v>
       </c>
-      <c r="G36">
-        <v>19</v>
+      <c r="G36" t="s">
+        <v>233</v>
       </c>
       <c r="H36" t="s">
         <v>130</v>
@@ -3129,8 +3129,8 @@
       <c r="F37" s="2">
         <v>27256</v>
       </c>
-      <c r="G37">
-        <v>67</v>
+      <c r="G37" t="s">
+        <v>233</v>
       </c>
       <c r="H37" t="s">
         <v>134</v>
@@ -3217,8 +3217,8 @@
       <c r="F39" s="2">
         <v>20655</v>
       </c>
-      <c r="G39">
-        <v>66</v>
+      <c r="G39" t="s">
+        <v>233</v>
       </c>
       <c r="H39" t="s">
         <v>144</v>
@@ -3261,8 +3261,8 @@
       <c r="F40" s="2">
         <v>32177</v>
       </c>
-      <c r="G40">
-        <v>55</v>
+      <c r="G40" t="s">
+        <v>233</v>
       </c>
       <c r="H40" t="s">
         <v>149</v>
@@ -3305,8 +3305,8 @@
       <c r="F41" s="2">
         <v>26456</v>
       </c>
-      <c r="G41">
-        <v>54</v>
+      <c r="G41" t="s">
+        <v>233</v>
       </c>
       <c r="H41" t="s">
         <v>153</v>
@@ -3349,8 +3349,8 @@
       <c r="F42" s="2">
         <v>29658</v>
       </c>
-      <c r="G42">
-        <v>99</v>
+      <c r="G42" t="s">
+        <v>233</v>
       </c>
       <c r="H42" t="s">
         <v>157</v>
@@ -3393,8 +3393,8 @@
       <c r="F43" s="2">
         <v>32070</v>
       </c>
-      <c r="G43">
-        <v>91</v>
+      <c r="G43" t="s">
+        <v>233</v>
       </c>
       <c r="H43" t="s">
         <v>161</v>
@@ -3437,8 +3437,8 @@
       <c r="F44" s="2">
         <v>29979</v>
       </c>
-      <c r="G44">
-        <v>47</v>
+      <c r="G44" t="s">
+        <v>233</v>
       </c>
       <c r="H44" t="s">
         <v>165</v>
@@ -3481,8 +3481,8 @@
       <c r="F45" s="2">
         <v>19448</v>
       </c>
-      <c r="G45">
-        <v>99</v>
+      <c r="G45" t="s">
+        <v>233</v>
       </c>
       <c r="H45" t="s">
         <v>169</v>
@@ -3525,8 +3525,8 @@
       <c r="F46" s="2">
         <v>25769</v>
       </c>
-      <c r="G46">
-        <v>82</v>
+      <c r="G46" t="s">
+        <v>233</v>
       </c>
       <c r="H46" t="s">
         <v>173</v>
@@ -3657,8 +3657,8 @@
       <c r="F49" s="2">
         <v>30815</v>
       </c>
-      <c r="G49">
-        <v>89</v>
+      <c r="G49" t="s">
+        <v>233</v>
       </c>
       <c r="H49" t="s">
         <v>185</v>
@@ -3701,8 +3701,8 @@
       <c r="F50" s="2">
         <v>25013</v>
       </c>
-      <c r="G50">
-        <v>75</v>
+      <c r="G50" t="s">
+        <v>233</v>
       </c>
       <c r="H50" t="s">
         <v>189</v>
@@ -3745,8 +3745,8 @@
       <c r="F51" s="2">
         <v>27265</v>
       </c>
-      <c r="G51">
-        <v>69</v>
+      <c r="G51" t="s">
+        <v>233</v>
       </c>
       <c r="H51" t="s">
         <v>193</v>
@@ -3877,8 +3877,8 @@
       <c r="F54" s="2">
         <v>30337</v>
       </c>
-      <c r="G54">
-        <v>45</v>
+      <c r="G54" t="s">
+        <v>233</v>
       </c>
       <c r="H54" t="s">
         <v>227</v>
@@ -3921,8 +3921,8 @@
       <c r="F55" s="2">
         <v>29667</v>
       </c>
-      <c r="G55">
-        <v>21</v>
+      <c r="G55" t="s">
+        <v>233</v>
       </c>
       <c r="H55" t="s">
         <v>224</v>
@@ -4053,8 +4053,8 @@
       <c r="F58" s="2">
         <v>27358</v>
       </c>
-      <c r="G58">
-        <v>9</v>
+      <c r="G58" t="s">
+        <v>233</v>
       </c>
       <c r="H58" t="s">
         <v>214</v>
@@ -4141,8 +4141,8 @@
       <c r="F60" s="2">
         <v>30586</v>
       </c>
-      <c r="G60">
-        <v>67</v>
+      <c r="G60" t="s">
+        <v>233</v>
       </c>
       <c r="H60" t="s">
         <v>208</v>
@@ -4185,8 +4185,8 @@
       <c r="F61" s="2">
         <v>30344</v>
       </c>
-      <c r="G61">
-        <v>81</v>
+      <c r="G61" t="s">
+        <v>233</v>
       </c>
       <c r="H61" t="s">
         <v>205</v>
@@ -4229,8 +4229,8 @@
       <c r="F62" s="2">
         <v>33632</v>
       </c>
-      <c r="G62">
-        <v>9</v>
+      <c r="G62" t="s">
+        <v>233</v>
       </c>
       <c r="H62" t="s">
         <v>202</v>
